--- a/fighters.xlsx
+++ b/fighters.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="482">
   <si>
     <t>Heavyweight</t>
   </si>
@@ -317,9 +317,6 @@
     <t>Lightweight</t>
   </si>
   <si>
-    <t xml:space="preserve">B.J. Penn             </t>
-  </si>
-  <si>
     <t xml:space="preserve">Frankie Edgar         </t>
   </si>
   <si>
@@ -827,9 +824,6 @@
     <t>Tito, Ortiz</t>
   </si>
   <si>
-    <t>Dan, Henderson</t>
-  </si>
-  <si>
     <t>Forrest, Griffin</t>
   </si>
   <si>
@@ -857,18 +851,9 @@
     <t>Anderson, Silva</t>
   </si>
   <si>
-    <t>Rich, Franklin</t>
-  </si>
-  <si>
-    <t>Nate, Marquardt</t>
-  </si>
-  <si>
     <t>Chael, Sonnen</t>
   </si>
   <si>
-    <t>Ronaldo, Souza</t>
-  </si>
-  <si>
     <t>Murilo, Bustamante</t>
   </si>
   <si>
@@ -878,15 +863,9 @@
     <t>Luke, Rockhold</t>
   </si>
   <si>
-    <t>Matt, Lindland</t>
-  </si>
-  <si>
     <t>Kazuo, Misaki</t>
   </si>
   <si>
-    <t>Ricardo, Almeida</t>
-  </si>
-  <si>
     <t>Kiuma, Kunioku</t>
   </si>
   <si>
@@ -899,12 +878,6 @@
     <t>Demian, Maia</t>
   </si>
   <si>
-    <t>Dave, Menne</t>
-  </si>
-  <si>
-    <t>Michael, Bisping</t>
-  </si>
-  <si>
     <t>Jorge, Santiago</t>
   </si>
   <si>
@@ -914,30 +887,12 @@
     <t>Hector, Lombard</t>
   </si>
   <si>
-    <t>Mark, Munoz</t>
-  </si>
-  <si>
-    <t>Georges, Pierre</t>
-  </si>
-  <si>
-    <t>Matt, Hughes</t>
-  </si>
-  <si>
     <t>Johny, Hendricks</t>
   </si>
   <si>
     <t>Carlos, Condit</t>
   </si>
   <si>
-    <t>Jon, Fitch</t>
-  </si>
-  <si>
-    <t>Nick, Diaz</t>
-  </si>
-  <si>
-    <t>B, Penn</t>
-  </si>
-  <si>
     <t>Pat, Miletich</t>
   </si>
   <si>
@@ -965,9 +920,6 @@
     <t>Jake, Ellenberger</t>
   </si>
   <si>
-    <t>Matt, Serra</t>
-  </si>
-  <si>
     <t>Martin, Kampmann</t>
   </si>
   <si>
@@ -983,9 +935,6 @@
     <t>Frankie, Edgar</t>
   </si>
   <si>
-    <t>Ben, Henderson</t>
-  </si>
-  <si>
     <t>Takanori, Gomi</t>
   </si>
   <si>
@@ -998,15 +947,9 @@
     <t>Anthony, Pettis</t>
   </si>
   <si>
-    <t>Rafael, Anjos</t>
-  </si>
-  <si>
     <t>Eddie, Alvarez</t>
   </si>
   <si>
-    <t>Vitor, Ribeiro</t>
-  </si>
-  <si>
     <t>Joachim, Hansen</t>
   </si>
   <si>
@@ -1019,9 +962,6 @@
     <t>Gray, Maynard</t>
   </si>
   <si>
-    <t>Donald, Cerrone</t>
-  </si>
-  <si>
     <t>Caol, Uno</t>
   </si>
   <si>
@@ -1046,18 +986,12 @@
     <t>Dokonjonosuke, Mishima</t>
   </si>
   <si>
-    <t>Nate, Diaz</t>
-  </si>
-  <si>
     <t>Jose, Aldo</t>
   </si>
   <si>
     <t>Urijah, Faber</t>
   </si>
   <si>
-    <t>Alexandre, Nogueira</t>
-  </si>
-  <si>
     <t>Mike, Brown</t>
   </si>
   <si>
@@ -1100,9 +1034,6 @@
     <t>Hiroyuki, Takaya</t>
   </si>
   <si>
-    <t>Mark, Hominick</t>
-  </si>
-  <si>
     <t>Naoya, Uematsu</t>
   </si>
   <si>
@@ -1130,9 +1061,6 @@
     <t>Dominick, Cruz</t>
   </si>
   <si>
-    <t>T, Dillashaw</t>
-  </si>
-  <si>
     <t>Brian, Bowles</t>
   </si>
   <si>
@@ -1184,9 +1112,6 @@
     <t>Antonio, Banuelos</t>
   </si>
   <si>
-    <t>Raphael, Assuncao</t>
-  </si>
-  <si>
     <t>Hisao, Ikeda</t>
   </si>
   <si>
@@ -1467,23 +1392,94 @@
   </si>
   <si>
     <t>Aliases</t>
+  </si>
+  <si>
+    <t>Franklin</t>
+  </si>
+  <si>
+    <t>Marquardt</t>
+  </si>
+  <si>
+    <t>Lindland</t>
+  </si>
+  <si>
+    <t>Henderson, Hendo</t>
+  </si>
+  <si>
+    <t>Almeida</t>
+  </si>
+  <si>
+    <t>Souza</t>
+  </si>
+  <si>
+    <t>Middleweight, Welterweight</t>
+  </si>
+  <si>
+    <t>Menne</t>
+  </si>
+  <si>
+    <t>Bisping</t>
+  </si>
+  <si>
+    <t>Munoz</t>
+  </si>
+  <si>
+    <t>Georges, Pierre, GSP</t>
+  </si>
+  <si>
+    <t>Hughes</t>
+  </si>
+  <si>
+    <t>Fitch</t>
+  </si>
+  <si>
+    <t>Nick</t>
+  </si>
+  <si>
+    <t>BJ, Penn, B.J, B. J</t>
+  </si>
+  <si>
+    <t>Serra</t>
+  </si>
+  <si>
+    <t>Welterweight, Lightweight</t>
+  </si>
+  <si>
+    <t>Rafael, Anjos, JDS</t>
+  </si>
+  <si>
+    <t>Ribeiro</t>
+  </si>
+  <si>
+    <t>Donald, Cerrone, Cowboy</t>
+  </si>
+  <si>
+    <t>Nate</t>
+  </si>
+  <si>
+    <t>Hominick</t>
+  </si>
+  <si>
+    <t>T.J, Dillashaw</t>
+  </si>
+  <si>
+    <t>Bantamweight, Flyweight</t>
+  </si>
+  <si>
+    <t>Assuncao</t>
+  </si>
+  <si>
+    <t>Flyweight, Strawweight</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1497,17 +1493,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1519,20 +1510,37 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1819,10 +1827,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C248"/>
+  <dimension ref="A1:C239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1834,13 +1842,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>480</v>
+      <c r="C1" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1850,8 +1858,8 @@
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>252</v>
+      <c r="C2" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1859,10 +1867,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>475</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>251</v>
+        <v>450</v>
+      </c>
+      <c r="C3" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1872,8 +1880,8 @@
       <c r="B4" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>253</v>
+      <c r="C4" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1883,8 +1891,8 @@
       <c r="B5" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>254</v>
+      <c r="C5" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1894,8 +1902,8 @@
       <c r="B6" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>255</v>
+      <c r="C6" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1905,8 +1913,8 @@
       <c r="B7" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>459</v>
+      <c r="C7" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1916,8 +1924,8 @@
       <c r="B8" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>460</v>
+      <c r="C8" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1927,8 +1935,8 @@
       <c r="B9" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>256</v>
+      <c r="C9" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1938,8 +1946,8 @@
       <c r="B10" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>461</v>
+      <c r="C10" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1949,8 +1957,8 @@
       <c r="B11" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>462</v>
+      <c r="C11" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1960,8 +1968,8 @@
       <c r="B12" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>463</v>
+      <c r="C12" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1971,8 +1979,8 @@
       <c r="B13" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>257</v>
+      <c r="C13" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1982,8 +1990,8 @@
       <c r="B14" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>464</v>
+      <c r="C14" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1993,8 +2001,8 @@
       <c r="B15" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>465</v>
+      <c r="C15" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -2004,8 +2012,8 @@
       <c r="B16" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>258</v>
+      <c r="C16" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -2015,8 +2023,8 @@
       <c r="B17" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>259</v>
+      <c r="C17" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -2026,8 +2034,8 @@
       <c r="B18" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>260</v>
+      <c r="C18" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -2037,7 +2045,6 @@
       <c r="B19" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -2046,8 +2053,8 @@
       <c r="B20" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>466</v>
+      <c r="C20" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -2057,8 +2064,8 @@
       <c r="B21" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>261</v>
+      <c r="C21" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -2068,8 +2075,8 @@
       <c r="B22" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>262</v>
+      <c r="C22" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -2079,8 +2086,8 @@
       <c r="B23" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>467</v>
+      <c r="C23" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -2088,10 +2095,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>475</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>468</v>
+        <v>450</v>
+      </c>
+      <c r="C24" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -2101,8 +2108,8 @@
       <c r="B25" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>469</v>
+      <c r="C25" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -2110,10 +2117,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>250</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>470</v>
+        <v>249</v>
+      </c>
+      <c r="C26" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -2121,10 +2128,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>250</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>471</v>
+        <v>249</v>
+      </c>
+      <c r="C27" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -2132,10 +2139,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>250</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>472</v>
+        <v>249</v>
+      </c>
+      <c r="C28" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -2143,10 +2150,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>250</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>473</v>
+        <v>249</v>
+      </c>
+      <c r="C29" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -2154,10 +2161,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>250</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>263</v>
+        <v>249</v>
+      </c>
+      <c r="C30" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -2165,10 +2172,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>250</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>264</v>
+        <v>249</v>
+      </c>
+      <c r="C31" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -2176,10 +2183,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>250</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>265</v>
+        <v>249</v>
+      </c>
+      <c r="C32" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -2187,10 +2194,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>250</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>266</v>
+        <v>249</v>
+      </c>
+      <c r="C33" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -2198,10 +2205,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>250</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>474</v>
+        <v>249</v>
+      </c>
+      <c r="C34" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -2209,10 +2216,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>250</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>459</v>
+        <v>249</v>
+      </c>
+      <c r="C35" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -2220,10 +2227,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>250</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>268</v>
+        <v>249</v>
+      </c>
+      <c r="C36" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -2231,10 +2238,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>250</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>269</v>
+        <v>249</v>
+      </c>
+      <c r="C37" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -2242,10 +2249,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>250</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>270</v>
+        <v>249</v>
+      </c>
+      <c r="C38" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -2253,19 +2260,18 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>250</v>
-      </c>
-      <c r="C39" s="2"/>
+        <v>249</v>
+      </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>250</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>271</v>
+        <v>249</v>
+      </c>
+      <c r="C40" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -2273,10 +2279,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>250</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>476</v>
+        <v>249</v>
+      </c>
+      <c r="C41" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -2284,19 +2290,18 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>250</v>
-      </c>
-      <c r="C42" s="2"/>
+        <v>249</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>250</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>477</v>
+        <v>249</v>
+      </c>
+      <c r="C43" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -2304,10 +2309,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>250</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>272</v>
+        <v>249</v>
+      </c>
+      <c r="C44" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -2315,10 +2320,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>250</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>478</v>
+        <v>249</v>
+      </c>
+      <c r="C45" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -2326,10 +2331,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>250</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>273</v>
+        <v>249</v>
+      </c>
+      <c r="C46" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -2337,10 +2342,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>250</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>274</v>
+        <v>249</v>
+      </c>
+      <c r="C47" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -2348,10 +2353,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>250</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>275</v>
+        <v>249</v>
+      </c>
+      <c r="C48" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -2361,8 +2366,8 @@
       <c r="B49" t="s">
         <v>48</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>276</v>
+      <c r="C49" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -2372,8 +2377,8 @@
       <c r="B50" t="s">
         <v>48</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>479</v>
+      <c r="C50" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -2384,7 +2389,7 @@
         <v>48</v>
       </c>
       <c r="C51" t="s">
-        <v>267</v>
+        <v>459</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -2395,7 +2400,7 @@
         <v>48</v>
       </c>
       <c r="C52" t="s">
-        <v>277</v>
+        <v>456</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -2406,7 +2411,7 @@
         <v>48</v>
       </c>
       <c r="C53" t="s">
-        <v>278</v>
+        <v>457</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -2417,7 +2422,7 @@
         <v>48</v>
       </c>
       <c r="C54" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -2428,7 +2433,7 @@
         <v>48</v>
       </c>
       <c r="C55" t="s">
-        <v>280</v>
+        <v>461</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -2439,7 +2444,7 @@
         <v>48</v>
       </c>
       <c r="C56" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -2450,7 +2455,7 @@
         <v>48</v>
       </c>
       <c r="C57" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -2461,7 +2466,7 @@
         <v>48</v>
       </c>
       <c r="C58" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -2472,7 +2477,7 @@
         <v>48</v>
       </c>
       <c r="C59" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -2483,7 +2488,7 @@
         <v>48</v>
       </c>
       <c r="C60" t="s">
-        <v>284</v>
+        <v>458</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -2494,7 +2499,7 @@
         <v>48</v>
       </c>
       <c r="C61" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -2505,7 +2510,7 @@
         <v>48</v>
       </c>
       <c r="C62" t="s">
-        <v>286</v>
+        <v>460</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -2516,7 +2521,7 @@
         <v>48</v>
       </c>
       <c r="C63" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -2527,7 +2532,7 @@
         <v>48</v>
       </c>
       <c r="C64" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -2535,10 +2540,10 @@
         <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>48</v>
+        <v>462</v>
       </c>
       <c r="C65" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -2549,7 +2554,7 @@
         <v>48</v>
       </c>
       <c r="C66" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -2557,10 +2562,10 @@
         <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>48</v>
+        <v>462</v>
       </c>
       <c r="C67" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -2568,10 +2573,10 @@
         <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>48</v>
+        <v>462</v>
       </c>
       <c r="C68" t="s">
-        <v>291</v>
+        <v>463</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -2582,7 +2587,7 @@
         <v>48</v>
       </c>
       <c r="C69" t="s">
-        <v>292</v>
+        <v>464</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -2593,7 +2598,7 @@
         <v>48</v>
       </c>
       <c r="C70" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -2601,10 +2606,10 @@
         <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>48</v>
+        <v>462</v>
       </c>
       <c r="C71" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -2615,7 +2620,7 @@
         <v>48</v>
       </c>
       <c r="C72" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -2626,7 +2631,7 @@
         <v>48</v>
       </c>
       <c r="C73" t="s">
-        <v>296</v>
+        <v>465</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -2637,7 +2642,7 @@
         <v>74</v>
       </c>
       <c r="C74" t="s">
-        <v>297</v>
+        <v>466</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -2648,7 +2653,7 @@
         <v>74</v>
       </c>
       <c r="C75" t="s">
-        <v>298</v>
+        <v>467</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -2659,12 +2664,12 @@
         <v>74</v>
       </c>
       <c r="C76" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="B77" t="s">
         <v>74</v>
@@ -2675,1888 +2680,1784 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B78" t="s">
         <v>74</v>
       </c>
       <c r="C78" t="s">
-        <v>300</v>
+        <v>468</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B79" t="s">
         <v>74</v>
       </c>
       <c r="C79" t="s">
-        <v>301</v>
+        <v>469</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="B80" t="s">
-        <v>74</v>
+        <v>472</v>
       </c>
       <c r="C80" t="s">
-        <v>294</v>
+        <v>470</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81" t="s">
         <v>74</v>
       </c>
       <c r="C81" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82" t="s">
         <v>74</v>
       </c>
       <c r="C82" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83" t="s">
         <v>74</v>
       </c>
       <c r="C83" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84" t="s">
         <v>74</v>
       </c>
       <c r="C84" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85" t="s">
         <v>74</v>
       </c>
       <c r="C85" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86" t="s">
         <v>74</v>
       </c>
       <c r="C86" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87" t="s">
         <v>74</v>
       </c>
       <c r="C87" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88" t="s">
         <v>74</v>
       </c>
       <c r="C88" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89" t="s">
         <v>74</v>
       </c>
       <c r="C89" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90" t="s">
         <v>74</v>
       </c>
       <c r="C90" t="s">
-        <v>311</v>
+        <v>471</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91" t="s">
         <v>74</v>
       </c>
       <c r="C91" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92" t="s">
         <v>74</v>
       </c>
       <c r="C92" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93" t="s">
         <v>74</v>
       </c>
       <c r="C93" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="B94" t="s">
         <v>74</v>
       </c>
       <c r="C94" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="B95" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="C95" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B96" t="s">
-        <v>74</v>
-      </c>
-      <c r="C96" t="s">
-        <v>315</v>
+        <v>96</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B97" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="C97" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B98" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="C98" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B99" t="s">
         <v>96</v>
       </c>
       <c r="C99" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B100" t="s">
         <v>96</v>
       </c>
       <c r="C100" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B101" t="s">
         <v>96</v>
       </c>
       <c r="C101" t="s">
-        <v>319</v>
+        <v>473</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B102" t="s">
         <v>96</v>
       </c>
       <c r="C102" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B103" t="s">
         <v>96</v>
       </c>
       <c r="C103" t="s">
-        <v>321</v>
+        <v>474</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B104" t="s">
         <v>96</v>
       </c>
       <c r="C104" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B105" t="s">
         <v>96</v>
       </c>
       <c r="C105" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B106" t="s">
         <v>96</v>
       </c>
       <c r="C106" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B107" t="s">
         <v>96</v>
       </c>
       <c r="C107" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B108" t="s">
         <v>96</v>
       </c>
       <c r="C108" t="s">
-        <v>326</v>
+        <v>475</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B109" t="s">
         <v>96</v>
       </c>
       <c r="C109" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B110" t="s">
         <v>96</v>
       </c>
       <c r="C110" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B111" t="s">
         <v>96</v>
       </c>
       <c r="C111" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B112" t="s">
         <v>96</v>
       </c>
       <c r="C112" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B113" t="s">
         <v>96</v>
       </c>
       <c r="C113" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B114" t="s">
         <v>96</v>
       </c>
       <c r="C114" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B115" t="s">
         <v>96</v>
       </c>
       <c r="C115" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B116" t="s">
         <v>96</v>
       </c>
       <c r="C116" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B117" t="s">
         <v>96</v>
       </c>
       <c r="C117" t="s">
-        <v>335</v>
+        <v>293</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B118" t="s">
         <v>96</v>
       </c>
       <c r="C118" t="s">
-        <v>336</v>
+        <v>476</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B119" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="C119" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B120" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="C120" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B121" t="s">
-        <v>96</v>
-      </c>
-      <c r="C121" t="s">
-        <v>339</v>
+        <v>121</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B122" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="C122" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
+        <v>126</v>
+      </c>
+      <c r="B123" t="s">
         <v>121</v>
       </c>
-      <c r="B123" t="s">
-        <v>96</v>
-      </c>
       <c r="C123" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B124" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C124" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B125" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C125" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B126" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C126" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B127" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C127" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B128" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C128" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B129" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C129" t="s">
-        <v>346</v>
+        <v>302</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B130" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C130" t="s">
-        <v>347</v>
+        <v>329</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B131" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C131" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B132" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C132" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B133" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C133" t="s">
-        <v>350</v>
+        <v>332</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B134" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C134" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B135" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C135" t="s">
-        <v>351</v>
+        <v>334</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B136" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C136" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B137" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C137" t="s">
-        <v>353</v>
+        <v>477</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B138" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C138" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B139" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C139" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B140" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C140" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B141" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C141" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B142" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C142" t="s">
-        <v>358</v>
+        <v>340</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B143" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C143" t="s">
-        <v>359</v>
+        <v>341</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B144" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="C144" t="s">
-        <v>360</v>
+        <v>342</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B145" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="C145" t="s">
-        <v>361</v>
+        <v>343</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B146" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="C146" t="s">
-        <v>362</v>
+        <v>344</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B147" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="C147" t="s">
-        <v>363</v>
+        <v>478</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
+        <v>152</v>
+      </c>
+      <c r="B148" t="s">
         <v>147</v>
       </c>
-      <c r="B148" t="s">
-        <v>122</v>
-      </c>
       <c r="C148" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B149" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C149" t="s">
-        <v>365</v>
+        <v>321</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B150" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C150" t="s">
-        <v>366</v>
+        <v>346</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B151" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C151" t="s">
-        <v>367</v>
+        <v>347</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B152" t="s">
-        <v>148</v>
+        <v>479</v>
       </c>
       <c r="C152" t="s">
-        <v>368</v>
+        <v>348</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B153" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C153" t="s">
-        <v>369</v>
+        <v>349</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B154" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C154" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B155" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C155" t="s">
-        <v>370</v>
+        <v>351</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B156" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C156" t="s">
-        <v>371</v>
+        <v>352</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B157" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C157" t="s">
-        <v>372</v>
+        <v>353</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B158" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C158" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B159" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C159" t="s">
-        <v>374</v>
+        <v>355</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B160" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C160" t="s">
-        <v>375</v>
+        <v>356</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B161" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C161" t="s">
-        <v>376</v>
+        <v>357</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B162" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C162" t="s">
-        <v>377</v>
+        <v>327</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B163" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C163" t="s">
-        <v>378</v>
+        <v>358</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B164" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C164" t="s">
-        <v>379</v>
+        <v>359</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B165" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C165" t="s">
-        <v>380</v>
+        <v>360</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B166" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C166" t="s">
-        <v>381</v>
+        <v>361</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B167" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C167" t="s">
-        <v>349</v>
+        <v>480</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B168" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C168" t="s">
-        <v>382</v>
+        <v>362</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B169" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="C169" t="s">
-        <v>383</v>
+        <v>363</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="B170" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="C170" t="s">
-        <v>384</v>
+        <v>364</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B171" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="C171" t="s">
-        <v>385</v>
+        <v>365</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="B172" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="C172" t="s">
-        <v>386</v>
+        <v>366</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
+        <v>178</v>
+      </c>
+      <c r="B173" t="s">
         <v>173</v>
       </c>
-      <c r="B173" t="s">
-        <v>148</v>
-      </c>
       <c r="C173" t="s">
-        <v>387</v>
+        <v>367</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B174" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C174" t="s">
-        <v>388</v>
+        <v>368</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B175" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C175" t="s">
-        <v>389</v>
+        <v>369</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B176" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C176" t="s">
-        <v>390</v>
+        <v>370</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B177" t="s">
-        <v>174</v>
+        <v>481</v>
       </c>
       <c r="C177" t="s">
-        <v>391</v>
+        <v>371</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B178" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C178" t="s">
-        <v>392</v>
+        <v>372</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>157</v>
+        <v>184</v>
       </c>
       <c r="B179" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C179" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="B180" t="s">
-        <v>174</v>
+        <v>481</v>
       </c>
       <c r="C180" t="s">
-        <v>393</v>
+        <v>374</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="B181" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C181" t="s">
-        <v>394</v>
+        <v>375</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="B182" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C182" t="s">
-        <v>395</v>
+        <v>376</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="B183" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C183" t="s">
-        <v>396</v>
+        <v>377</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="B184" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C184" t="s">
-        <v>397</v>
+        <v>378</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="B185" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C185" t="s">
-        <v>398</v>
+        <v>379</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="B186" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C186" t="s">
-        <v>399</v>
+        <v>380</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="B187" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C187" t="s">
-        <v>400</v>
+        <v>381</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="B188" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C188" t="s">
-        <v>401</v>
+        <v>382</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="B189" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C189" t="s">
-        <v>402</v>
+        <v>383</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B190" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C190" t="s">
-        <v>403</v>
+        <v>384</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="B191" t="s">
-        <v>174</v>
+        <v>481</v>
       </c>
       <c r="C191" t="s">
-        <v>404</v>
+        <v>385</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="B192" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C192" t="s">
-        <v>405</v>
+        <v>386</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="B193" t="s">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="C193" t="s">
-        <v>406</v>
+        <v>387</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="B194" t="s">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="C194" t="s">
-        <v>407</v>
+        <v>388</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="B195" t="s">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="C195" t="s">
-        <v>408</v>
+        <v>389</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="B196" t="s">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="C196" t="s">
-        <v>409</v>
+        <v>390</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B197" t="s">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="C197" t="s">
-        <v>410</v>
+        <v>391</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
+        <v>204</v>
+      </c>
+      <c r="B198" t="s">
         <v>198</v>
       </c>
-      <c r="B198" t="s">
-        <v>174</v>
-      </c>
       <c r="C198" t="s">
-        <v>411</v>
+        <v>392</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="B199" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C199" t="s">
-        <v>412</v>
+        <v>393</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="B200" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C200" t="s">
-        <v>410</v>
+        <v>394</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="B201" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C201" t="s">
-        <v>413</v>
+        <v>395</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="B202" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C202" t="s">
-        <v>414</v>
+        <v>396</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B203" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C203" t="s">
-        <v>415</v>
+        <v>397</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="B204" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C204" t="s">
-        <v>416</v>
+        <v>398</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="B205" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C205" t="s">
-        <v>417</v>
+        <v>399</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="B206" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C206" t="s">
-        <v>418</v>
+        <v>400</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="B207" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C207" t="s">
-        <v>419</v>
+        <v>401</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B208" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C208" t="s">
-        <v>420</v>
+        <v>402</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="B209" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C209" t="s">
-        <v>421</v>
+        <v>403</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="B210" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C210" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="B211" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C211" t="s">
-        <v>423</v>
+        <v>405</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="B212" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C212" t="s">
-        <v>424</v>
+        <v>406</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="B213" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C213" t="s">
-        <v>425</v>
+        <v>407</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B214" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C214" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="B215" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="C215" t="s">
-        <v>427</v>
+        <v>409</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>186</v>
+        <v>223</v>
       </c>
       <c r="B216" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="C216" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="B217" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="C217" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="B218" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="C218" t="s">
-        <v>429</v>
+        <v>412</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="B219" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="C219" t="s">
-        <v>430</v>
+        <v>413</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="B220" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="C220" t="s">
-        <v>431</v>
+        <v>414</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="B221" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="C221" t="s">
-        <v>432</v>
+        <v>415</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
+        <v>229</v>
+      </c>
+      <c r="B222" t="s">
         <v>221</v>
       </c>
-      <c r="B222" t="s">
-        <v>199</v>
-      </c>
       <c r="C222" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>183</v>
+        <v>230</v>
       </c>
       <c r="B223" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="C223" t="s">
-        <v>396</v>
+        <v>417</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="B224" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C224" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="B225" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C225" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="B226" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C226" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="B227" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C227" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="B228" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C228" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="B229" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C229" t="s">
-        <v>439</v>
+        <v>423</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="B230" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C230" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="B231" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C231" t="s">
-        <v>441</v>
+        <v>425</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="B232" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C232" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="B233" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C233" t="s">
-        <v>443</v>
+        <v>427</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="B234" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C234" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="B235" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C235" t="s">
-        <v>445</v>
+        <v>429</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="B236" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C236" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="B237" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C237" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="B238" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C238" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B239" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C239" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
-        <v>239</v>
-      </c>
-      <c r="B240" t="s">
-        <v>222</v>
-      </c>
-      <c r="C240" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
-        <v>240</v>
-      </c>
-      <c r="B241" t="s">
-        <v>222</v>
-      </c>
-      <c r="C241" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
-        <v>241</v>
-      </c>
-      <c r="B242" t="s">
-        <v>222</v>
-      </c>
-      <c r="C242" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
-        <v>242</v>
-      </c>
-      <c r="B243" t="s">
-        <v>222</v>
-      </c>
-      <c r="C243" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
-        <v>243</v>
-      </c>
-      <c r="B244" t="s">
-        <v>222</v>
-      </c>
-      <c r="C244" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
-        <v>244</v>
-      </c>
-      <c r="B245" t="s">
-        <v>222</v>
-      </c>
-      <c r="C245" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
-        <v>245</v>
-      </c>
-      <c r="B246" t="s">
-        <v>222</v>
-      </c>
-      <c r="C246" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
-        <v>246</v>
-      </c>
-      <c r="B247" t="s">
-        <v>222</v>
-      </c>
-      <c r="C247" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
-        <v>247</v>
-      </c>
-      <c r="B248" t="s">
-        <v>222</v>
-      </c>
-      <c r="C248" t="s">
-        <v>458</v>
+        <v>433</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
